--- a/example/batchConvert/策划表/item.xlsx
+++ b/example/batchConvert/策划表/item.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/策划表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90370E03-510A-0D42-B32D-4CC02396BCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB250D-7495-414D-AC5B-EE9BD53568CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29300" yWindow="3440" windowWidth="28100" windowHeight="17360" activeTab="1" xr2:uid="{17ACE23F-0396-854A-ACC1-061B131E8100}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="item" sheetId="1" r:id="rId1"/>
+    <sheet name="属性" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -649,7 +649,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/example/batchConvert/策划表/item.xlsx
+++ b/example/batchConvert/策划表/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/策划表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB250D-7495-414D-AC5B-EE9BD53568CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254110BA-281A-864A-9D44-2A98A4674F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29300" yWindow="3440" windowWidth="28100" windowHeight="17360" activeTab="1" xr2:uid="{17ACE23F-0396-854A-ACC1-061B131E8100}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>道具id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>这是个不应该被客户端用户看到的敏感字段，可以在 $tables.xlsx 中配置删减它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +653,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -667,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
